--- a/SupplimentaryTablesPredict.xlsx
+++ b/SupplimentaryTablesPredict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7936910138711091</v>
+        <v>0.9998884777984912</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01270053358300869</v>
+        <v>0.0001114664264608055</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -470,6 +470,168 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>C([C@@H]1[C@H]([C@@H](C(O1)(CN)O)O)O)O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9917311367400246</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.002528028896078412</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1-amino-1-deoxy-beta-D-mannopyranose</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@H]([C@@H](O1)N)O)O)O)O</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9100918185782784</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00893366403678808</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Voglibiose</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>C1[C@@H]([C@@H]([C@H]([C@@H]([C@]1(CO)O)O)O)O)NC(CO)CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.8715626170686948</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01035616156099196</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1-Amino-2,5-anhydro-1-deoxy-D-mannitol</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C([C@@H]1[C@H]([C@@H]([C@H](O1)CO)O)O)N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8510434724789071</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01097004605925282</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-deoxy-1,2,5,6-di-O-isopropylidene alpha-D-glucofuranose</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CC1(OCC(O1)[C@@H]2C[C@@H]3[C@H](O2)OC(O3)(C)C)C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.7849690815274928</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01285110994952963</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D-allose</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C([C@@H]1[C@H]([C@H]([C@H](C(O1)O)O)O)O)O</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.7678016060459952</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01316228882364784</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2,5-Anhydro-D-mannitol</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C([C@@H]1[C@H]([C@@H]([C@H](O1)CO)O)O)O</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.6807284153566859</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01458139129240986</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1-Thio-beta-D-glucose sodium salt</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@@H](O1)[S-])O)O)O)O</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.666623429081019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01478357147153726</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2,5-Anhydro-D-glucitol</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@H](O1)CO)O)O)O</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.5959380012113188</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01509164743769934</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,2-O-Isopropylidene-alpha-D-xylofuranose</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CC1(O[C@@H]2[C@H]([C@H](O[C@@H]2O1)CO)O)C</t>
         </is>
       </c>
     </row>
